--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953A113-890E-4C1B-BE06-4E2E0C236EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,119 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+  <si>
+    <t>Magyarország</t>
+  </si>
+  <si>
+    <t>Esemény</t>
+  </si>
+  <si>
+    <t>Év</t>
+  </si>
+  <si>
+    <t>Leírás</t>
+  </si>
+  <si>
+    <t>Forrás</t>
+  </si>
+  <si>
+    <t>Honfoglalás</t>
+  </si>
+  <si>
+    <t>Honfoglalás.txt</t>
+  </si>
+  <si>
+    <t>http://finnugor.elte.hu/tortenelem/Egyesnepek/Magyar/magykron.htm</t>
+  </si>
+  <si>
+    <t>Kereszténység felvétele</t>
+  </si>
+  <si>
+    <t>Kereszténység felvétele.txt</t>
+  </si>
+  <si>
+    <t>Államalapítás</t>
+  </si>
+  <si>
+    <t>Államalapítás.txt</t>
+  </si>
+  <si>
+    <t>997-1038</t>
+  </si>
+  <si>
+    <t>1. Szent István uralkodása</t>
+  </si>
+  <si>
+    <t>1. Szent István uralkodása.txt</t>
+  </si>
+  <si>
+    <t>ez is</t>
+  </si>
+  <si>
+    <t>Aranybulla</t>
+  </si>
+  <si>
+    <t>Aranybulla.txt</t>
+  </si>
+  <si>
+    <t>1241-1242</t>
+  </si>
+  <si>
+    <t>Tatárjárás</t>
+  </si>
+  <si>
+    <t>Tatárjárás.txt</t>
+  </si>
+  <si>
+    <t>1308-1395</t>
+  </si>
+  <si>
+    <t>Anjou-kor</t>
+  </si>
+  <si>
+    <t>Anjou-kor.txt</t>
+  </si>
+  <si>
+    <t>Nándorfehérvári diadal</t>
+  </si>
+  <si>
+    <t>Nándorfehérvár.txt</t>
+  </si>
+  <si>
+    <t>1458-1490</t>
+  </si>
+  <si>
+    <t>Hunyadi Mátyás uralkodása</t>
+  </si>
+  <si>
+    <t>Dózsa György parasztfelkelés</t>
+  </si>
+  <si>
+    <t>Mohácsi csata</t>
+  </si>
+  <si>
+    <t>Mohácsi csata.txt</t>
+  </si>
+  <si>
+    <t>Hunyadi.txt</t>
+  </si>
+  <si>
+    <t>Az ország három részre szakadása</t>
+  </si>
+  <si>
+    <t>Három részre szakadás.txt</t>
+  </si>
+  <si>
+    <t>Dózsa György parasztfelkelés.txt</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +139,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,14 +231,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +531,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X24" sqref="X24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="X3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="9"/>
+      <c r="AC3" s="13"/>
+      <c r="AF3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="4"/>
+    </row>
+    <row r="5" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I5" s="10">
+        <v>895</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+    </row>
+    <row r="7" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I7" s="10">
+        <v>972</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I9" s="10">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I10" s="14"/>
+      <c r="M10" s="14"/>
+    </row>
+    <row r="11" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I13" s="10">
+        <v>1222</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I19" s="10">
+        <v>1456</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="9:33" x14ac:dyDescent="0.25">
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I23" s="10">
+        <v>1514</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I25" s="10">
+        <v>1526</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I27" s="10">
+        <v>1541</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AG5" r:id="rId1" xr:uid="{49191068-0441-487B-9A7D-F06AE824FFC0}"/>
+    <hyperlink ref="AG7" r:id="rId2" xr:uid="{0A5B0AB2-0153-4C97-B431-66F9538BD799}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953A113-890E-4C1B-BE06-4E2E0C236EC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECB854-38ED-4EAC-B961-231EE4EFBC49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>Magyarország</t>
   </si>
@@ -125,13 +125,160 @@
   </si>
   <si>
     <t>Dózsa György parasztfelkelés.txt</t>
+  </si>
+  <si>
+    <t>Buda visszavétele</t>
+  </si>
+  <si>
+    <t>Buda visszavétele.txt</t>
+  </si>
+  <si>
+    <t>1703-1711</t>
+  </si>
+  <si>
+    <t>Rákóczi-szabadságharc</t>
+  </si>
+  <si>
+    <t>Rákóczi.txt</t>
+  </si>
+  <si>
+    <t>Pragmatica Sanctio</t>
+  </si>
+  <si>
+    <t>Pragmatica Sanctio.txt</t>
+  </si>
+  <si>
+    <t>1825-1848</t>
+  </si>
+  <si>
+    <t>Reformkor</t>
+  </si>
+  <si>
+    <t>Reformkor.txt</t>
+  </si>
+  <si>
+    <t>1848-1849</t>
+  </si>
+  <si>
+    <t>48-as Forradalom és szabadságharc</t>
+  </si>
+  <si>
+    <t>Kiegyezés</t>
+  </si>
+  <si>
+    <t>Kiegyezés.txt</t>
+  </si>
+  <si>
+    <t>1914-1918</t>
+  </si>
+  <si>
+    <t>Magyarország az első világháborúban</t>
+  </si>
+  <si>
+    <t>Magyarország első világháború.txt</t>
+  </si>
+  <si>
+    <t>Tanácsköztársaság</t>
+  </si>
+  <si>
+    <t>Tanácsköztársaság.txt</t>
+  </si>
+  <si>
+    <t>48-as forradalom.txt</t>
+  </si>
+  <si>
+    <t>1920-1944</t>
+  </si>
+  <si>
+    <t>Horthy-korszak</t>
+  </si>
+  <si>
+    <t>Horthy.txt</t>
+  </si>
+  <si>
+    <t>1941-1945</t>
+  </si>
+  <si>
+    <t>Magyarország a második világháborúban</t>
+  </si>
+  <si>
+    <t>1947-1956</t>
+  </si>
+  <si>
+    <t>Rákosi korszak</t>
+  </si>
+  <si>
+    <t>Rákosi.txt</t>
+  </si>
+  <si>
+    <t>Magyarország második világháború.txt</t>
+  </si>
+  <si>
+    <t>56-os forradalom</t>
+  </si>
+  <si>
+    <t>56-os forradalom.txt</t>
+  </si>
+  <si>
+    <t>1957-1989</t>
+  </si>
+  <si>
+    <t>Kádár korszak</t>
+  </si>
+  <si>
+    <t>Kádár.txt</t>
+  </si>
+  <si>
+    <t>Rendszerváltás</t>
+  </si>
+  <si>
+    <t>Rendszerváltás.txt</t>
+  </si>
+  <si>
+    <t>Horn-kormány</t>
+  </si>
+  <si>
+    <t>Horn.txt</t>
+  </si>
+  <si>
+    <t>Magyarország csatlakozik a NATO-hoz</t>
+  </si>
+  <si>
+    <t>Magyarország NATO.txt</t>
+  </si>
+  <si>
+    <t>Első Orbán kormány</t>
+  </si>
+  <si>
+    <t>Első Orbán.txt</t>
+  </si>
+  <si>
+    <t>1000 éves magyar állam</t>
+  </si>
+  <si>
+    <t>1000 éves magyar állam.txt</t>
+  </si>
+  <si>
+    <t>Magyarország csatlakozik az EU-hoz</t>
+  </si>
+  <si>
+    <t>Magyarország EU.txt</t>
+  </si>
+  <si>
+    <t>Őszödi beszéd</t>
+  </si>
+  <si>
+    <t>Őszödi beszéd.txt</t>
+  </si>
+  <si>
+    <t>Németország</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,19 +324,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -221,6 +370,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3F3F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -235,22 +402,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -258,6 +428,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3F3F"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -532,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AI27"/>
+  <dimension ref="B3:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,221 +718,691 @@
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:35" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="2:35" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="X3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="7"/>
+      <c r="AC3" s="11"/>
+      <c r="AF3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="5" spans="2:35" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="I3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="X3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="9"/>
-      <c r="AC3" s="13"/>
-      <c r="AF3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="4"/>
-    </row>
-    <row r="5" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I5" s="10">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="8">
         <v>895</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="11" t="s">
+      <c r="X5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AG5" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
-      <c r="AH6" s="14"/>
-      <c r="AI6" s="14"/>
-    </row>
-    <row r="7" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I7" s="10">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+    </row>
+    <row r="7" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="8">
         <v>972</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="11" t="s">
+      <c r="X7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AG7" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I9" s="10">
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="8">
         <v>1000</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="X9" s="10" t="s">
+      <c r="X9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="AG9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I10" s="14"/>
-      <c r="M10" s="14"/>
-    </row>
-    <row r="11" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I11" s="10" t="s">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="11" t="s">
+      <c r="X11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="AG11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I13" s="10">
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="8">
         <v>1222</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="11" t="s">
+      <c r="X13" s="9" t="s">
         <v>17</v>
       </c>
       <c r="AG13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I15" s="10" t="s">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="X15" s="10" t="s">
+      <c r="X15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="AG15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I17" s="10" t="s">
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="10" t="s">
+      <c r="X17" s="8" t="s">
         <v>23</v>
       </c>
       <c r="AG17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I19" s="10">
+    <row r="18" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="8">
         <v>1456</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="X19" s="10" t="s">
+      <c r="X19" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="9:33" x14ac:dyDescent="0.25">
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I21" s="10" t="s">
+    <row r="20" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="X21" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I23" s="10">
+    <row r="22" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="8">
         <v>1514</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="X23" s="10" t="s">
+      <c r="X23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I25" s="10">
+    <row r="24" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="8">
         <v>1526</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="X25" s="10" t="s">
+      <c r="X25" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="9:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="I27" s="10">
+    <row r="26" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="8">
         <v>1541</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X27" s="10" t="s">
+      <c r="X27" s="8" t="s">
         <v>33</v>
       </c>
+    </row>
+    <row r="28" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="8">
+        <v>1686</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="X29" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="X31" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="8">
+        <v>1723</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X35" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="8">
+        <v>1867</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="X39" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="X41" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="8">
+        <v>1919</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X43" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="X45" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="X47" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="X49" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="8">
+        <v>1956</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="X51" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="X53" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="8">
+        <v>1989</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="X55" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="8">
+        <v>1994</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="X57" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="8">
+        <v>1998</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X59" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="8">
+        <v>1999</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X61" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="8">
+        <v>2000</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="X63" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="8">
+        <v>2004</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X65" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="8">
+        <v>2006</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="X67" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="6:24" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F70" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ECB854-38ED-4EAC-B961-231EE4EFBC49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E3429-A07C-4E89-8FE1-409D0B2B840C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Magyarország</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Németország</t>
+  </si>
+  <si>
+    <t>500-751</t>
   </si>
 </sst>
 </file>
@@ -709,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,6 +1406,10 @@
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
+      <c r="I70" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M70" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0E3429-A07C-4E89-8FE1-409D0B2B840C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47303C6-1693-4BBB-BA7F-C0ADD7096C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
   <si>
     <t>Magyarország</t>
   </si>
@@ -275,6 +275,135 @@
   </si>
   <si>
     <t>500-751</t>
+  </si>
+  <si>
+    <t>Merovingok</t>
+  </si>
+  <si>
+    <t>https://hu.wikipedia.org/wiki/N%C3%A9metorsz%C3%A1g_t%C3%B6rt%C3%A9nelme</t>
+  </si>
+  <si>
+    <t>751-911</t>
+  </si>
+  <si>
+    <t>Karolingok</t>
+  </si>
+  <si>
+    <t>Merovingok.txt</t>
+  </si>
+  <si>
+    <t>919-1024</t>
+  </si>
+  <si>
+    <t>Az Ottók uralma</t>
+  </si>
+  <si>
+    <t>Karolingok.txt</t>
+  </si>
+  <si>
+    <t>Ottók.txt</t>
+  </si>
+  <si>
+    <t>1024-1125</t>
+  </si>
+  <si>
+    <t>A Száli-ház</t>
+  </si>
+  <si>
+    <t>1138-1254</t>
+  </si>
+  <si>
+    <t>A Stauf-ház</t>
+  </si>
+  <si>
+    <t>Stauf-ház.txt</t>
+  </si>
+  <si>
+    <t>Száli-ház.txt</t>
+  </si>
+  <si>
+    <t>1254-1313</t>
+  </si>
+  <si>
+    <t>Interregnum és a Habsburgok felemelkedése</t>
+  </si>
+  <si>
+    <t>Interregnum és Habsburgok.txt</t>
+  </si>
+  <si>
+    <t>1378-1493</t>
+  </si>
+  <si>
+    <t>A Habsburg-korszak kezdete</t>
+  </si>
+  <si>
+    <t>Habsburg.txt</t>
+  </si>
+  <si>
+    <t>1486-1519</t>
+  </si>
+  <si>
+    <t>I. Miksa uralkodása</t>
+  </si>
+  <si>
+    <t>Miksa.txt</t>
+  </si>
+  <si>
+    <t>Reformáció</t>
+  </si>
+  <si>
+    <t>Reformáció.txt</t>
+  </si>
+  <si>
+    <t>1618-1648</t>
+  </si>
+  <si>
+    <t>A harmincéves háború</t>
+  </si>
+  <si>
+    <t>Harmincéves háború.txt</t>
+  </si>
+  <si>
+    <t>1799-1815</t>
+  </si>
+  <si>
+    <t>Napóleoni háborúk</t>
+  </si>
+  <si>
+    <t>Napóleon.txt</t>
+  </si>
+  <si>
+    <t>1815-1848</t>
+  </si>
+  <si>
+    <t>Német szövetség és a Szent Szövetség</t>
+  </si>
+  <si>
+    <t>Szövetségek.txt</t>
+  </si>
+  <si>
+    <t>48-as német forradalom Berlinben</t>
+  </si>
+  <si>
+    <t>Német 48-as forradalom</t>
+  </si>
+  <si>
+    <t>porosz-osztrák háború</t>
+  </si>
+  <si>
+    <t>porosz-osztrák.txt</t>
+  </si>
+  <si>
+    <t>Német Császárság megalakulása</t>
+  </si>
+  <si>
+    <t>Három császár éve</t>
+  </si>
+  <si>
+    <t>Német Császárság.txt</t>
+  </si>
+  <si>
+    <t>Három császár éve.txt</t>
   </si>
 </sst>
 </file>
@@ -710,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AI70"/>
+  <dimension ref="B3:AI100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X101" sqref="X101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1496,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="15"/>
     </row>
-    <row r="65" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="65" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="15"/>
@@ -1381,12 +1510,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="6:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="15"/>
     </row>
-    <row r="67" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="67" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="15"/>
@@ -1400,7 +1529,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="6:24" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="70" spans="6:33" ht="31.5" x14ac:dyDescent="0.5">
       <c r="F70" s="17" t="s">
         <v>83</v>
       </c>
@@ -1409,14 +1538,188 @@
       <c r="I70" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M70" s="8"/>
+      <c r="M70" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="X70" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG70" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="X72" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I74" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X74" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I76" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M76" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X76" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I78" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M78" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X78" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I80" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M80" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X80" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I82" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M82" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X82" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I84" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M84" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X84" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I86" s="8">
+        <v>1517</v>
+      </c>
+      <c r="M86" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X86" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I88" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M88" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="X88" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I90" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M90" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="X90" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I92" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M92" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="X92" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I94" s="8">
+        <v>1848</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="X94" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I96" s="8">
+        <v>1866</v>
+      </c>
+      <c r="M96" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="X96" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I98" s="8">
+        <v>1871</v>
+      </c>
+      <c r="M98" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="X98" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I100" s="8">
+        <v>1888</v>
+      </c>
+      <c r="M100" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="X100" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AG5" r:id="rId1" xr:uid="{49191068-0441-487B-9A7D-F06AE824FFC0}"/>
     <hyperlink ref="AG7" r:id="rId2" xr:uid="{0A5B0AB2-0153-4C97-B431-66F9538BD799}"/>
+    <hyperlink ref="AG70" r:id="rId3" xr:uid="{10FEDE2B-5CA7-4BB0-9B03-AE03E9730277}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47303C6-1693-4BBB-BA7F-C0ADD7096C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0017432-F94B-464C-861C-D0D514DCBC17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
   <si>
     <t>Magyarország</t>
   </si>
@@ -404,6 +404,60 @@
   </si>
   <si>
     <t>Három császár éve.txt</t>
+  </si>
+  <si>
+    <t>Németország az első világháborúban.</t>
+  </si>
+  <si>
+    <t>Német elsővilágháború.txt</t>
+  </si>
+  <si>
+    <t>1918-1933</t>
+  </si>
+  <si>
+    <t>Weimari Köztársaság</t>
+  </si>
+  <si>
+    <t>Weimar.txt</t>
+  </si>
+  <si>
+    <t>1933-1945</t>
+  </si>
+  <si>
+    <t>Nemzetiszocializmus és 2. világháború</t>
+  </si>
+  <si>
+    <t>Nemzetiszocializmus és 2. világháború.txt</t>
+  </si>
+  <si>
+    <t>1945-1990</t>
+  </si>
+  <si>
+    <t>Kettéosztott Németország</t>
+  </si>
+  <si>
+    <t>Kettéosztott Németország.txt</t>
+  </si>
+  <si>
+    <t>NDK</t>
+  </si>
+  <si>
+    <t>NDK.txt</t>
+  </si>
+  <si>
+    <t>NSZK</t>
+  </si>
+  <si>
+    <t>NSZK.txt</t>
+  </si>
+  <si>
+    <t>Újraegyesült Németország</t>
+  </si>
+  <si>
+    <t>Újraegyesült Németország.txt</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -465,7 +519,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +574,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -534,7 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -553,6 +619,9 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -839,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AI100"/>
+  <dimension ref="B3:AI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X101" sqref="X101"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O116" sqref="O116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,7 +1617,11 @@
         <v>86</v>
       </c>
     </row>
+    <row r="71" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="H71" s="18"/>
+    </row>
     <row r="72" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H72" s="18"/>
       <c r="I72" s="8" t="s">
         <v>87</v>
       </c>
@@ -1559,7 +1632,11 @@
         <v>92</v>
       </c>
     </row>
+    <row r="73" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="H73" s="18"/>
+    </row>
     <row r="74" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H74" s="18"/>
       <c r="I74" s="8" t="s">
         <v>90</v>
       </c>
@@ -1570,7 +1647,11 @@
         <v>93</v>
       </c>
     </row>
+    <row r="75" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="H75" s="18"/>
+    </row>
     <row r="76" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H76" s="18"/>
       <c r="I76" s="8" t="s">
         <v>94</v>
       </c>
@@ -1581,7 +1662,11 @@
         <v>99</v>
       </c>
     </row>
+    <row r="77" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="H77" s="18"/>
+    </row>
     <row r="78" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H78" s="18"/>
       <c r="I78" s="8" t="s">
         <v>96</v>
       </c>
@@ -1592,7 +1677,11 @@
         <v>98</v>
       </c>
     </row>
+    <row r="79" spans="6:33" x14ac:dyDescent="0.25">
+      <c r="H79" s="18"/>
+    </row>
     <row r="80" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H80" s="18"/>
       <c r="I80" s="8" t="s">
         <v>100</v>
       </c>
@@ -1603,7 +1692,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="81" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H82" s="18"/>
       <c r="I82" s="8" t="s">
         <v>103</v>
       </c>
@@ -1614,7 +1707,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="83" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H84" s="18"/>
       <c r="I84" s="8" t="s">
         <v>106</v>
       </c>
@@ -1625,7 +1722,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="85" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H86" s="18"/>
       <c r="I86" s="8">
         <v>1517</v>
       </c>
@@ -1636,7 +1737,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="87" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H88" s="18"/>
       <c r="I88" s="8" t="s">
         <v>111</v>
       </c>
@@ -1647,7 +1752,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="89" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H90" s="18"/>
       <c r="I90" s="8" t="s">
         <v>114</v>
       </c>
@@ -1658,7 +1767,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="91" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H92" s="18"/>
       <c r="I92" s="8" t="s">
         <v>117</v>
       </c>
@@ -1669,7 +1782,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="93" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H94" s="18"/>
       <c r="I94" s="8">
         <v>1848</v>
       </c>
@@ -1680,7 +1797,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="95" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H96" s="18"/>
       <c r="I96" s="8">
         <v>1866</v>
       </c>
@@ -1691,7 +1812,11 @@
         <v>123</v>
       </c>
     </row>
-    <row r="98" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="97" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H98" s="18"/>
       <c r="I98" s="8">
         <v>1871</v>
       </c>
@@ -1702,7 +1827,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="99" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H100" s="18"/>
       <c r="I100" s="8">
         <v>1888</v>
       </c>
@@ -1712,6 +1841,117 @@
       <c r="X100" s="8" t="s">
         <v>127</v>
       </c>
+    </row>
+    <row r="101" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H102" s="18"/>
+      <c r="I102" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M102" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="X102" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H104" s="18"/>
+      <c r="I104" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M104" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="X104" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H106" s="18"/>
+      <c r="I106" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M106" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="X106" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H108" s="18"/>
+      <c r="I108" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M108" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="X108" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H110" s="18"/>
+      <c r="I110" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="X110" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H112" s="18"/>
+      <c r="I112" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="M112" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="X112" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="7:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H114" s="18"/>
+      <c r="I114" s="8">
+        <v>1990</v>
+      </c>
+      <c r="M114" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="X114" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="7:24" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="G117" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H117" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0017432-F94B-464C-861C-D0D514DCBC17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8502A-4738-4B81-A6FB-44908CF29DE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
   <si>
     <t>Magyarország</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Kolumbusz Kristóf felfedezi Amerikát</t>
+  </si>
+  <si>
+    <t>Kolombusz.txt</t>
   </si>
 </sst>
 </file>
@@ -910,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O116" sqref="O116"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T106" sqref="T106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1952,6 +1958,15 @@
         <v>145</v>
       </c>
       <c r="H117" s="20"/>
+      <c r="I117" s="8">
+        <v>1492</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="X117" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8502A-4738-4B81-A6FB-44908CF29DE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="215">
   <si>
     <t>Magyarország</t>
   </si>
@@ -464,12 +463,213 @@
   </si>
   <si>
     <t>Kolombusz.txt</t>
+  </si>
+  <si>
+    <t>1513-1803</t>
+  </si>
+  <si>
+    <t>1756-1763</t>
+  </si>
+  <si>
+    <t>Hétéves háború</t>
+  </si>
+  <si>
+    <t>Hétéves.txt</t>
+  </si>
+  <si>
+    <t>Gyarmatosítás</t>
+  </si>
+  <si>
+    <t>Gyarmat.txt</t>
+  </si>
+  <si>
+    <t>Bostoni teadélután</t>
+  </si>
+  <si>
+    <t>BostonTea.txt</t>
+  </si>
+  <si>
+    <t>1775-1783</t>
+  </si>
+  <si>
+    <t>Függetlenségi háború</t>
+  </si>
+  <si>
+    <t>Függetlenség.txt</t>
+  </si>
+  <si>
+    <t>A köztársaság kezdete</t>
+  </si>
+  <si>
+    <t>Köztársaság.txt</t>
+  </si>
+  <si>
+    <t>1812-1815</t>
+  </si>
+  <si>
+    <t>1812-es háború</t>
+  </si>
+  <si>
+    <t>1812.txt</t>
+  </si>
+  <si>
+    <t>Az indiánok elűzése</t>
+  </si>
+  <si>
+    <t>Indiánok.txt</t>
+  </si>
+  <si>
+    <t>1861-1865</t>
+  </si>
+  <si>
+    <t>Polgárháború</t>
+  </si>
+  <si>
+    <t>Polgárháború.txt</t>
+  </si>
+  <si>
+    <t>Rabszolgaság felszabadítása</t>
+  </si>
+  <si>
+    <t>Rabszolgaság.txt</t>
+  </si>
+  <si>
+    <t>USA az első világháborúban</t>
+  </si>
+  <si>
+    <t>USAWW1.txt</t>
+  </si>
+  <si>
+    <t>Női választójog</t>
+  </si>
+  <si>
+    <t>Nők.txt</t>
+  </si>
+  <si>
+    <t>USA a második világháborúban</t>
+  </si>
+  <si>
+    <t>USAWW2.txt</t>
+  </si>
+  <si>
+    <t>1947-1991</t>
+  </si>
+  <si>
+    <t>Hidegháború</t>
+  </si>
+  <si>
+    <t>Hidegháború.txt</t>
+  </si>
+  <si>
+    <t>2001-2014</t>
+  </si>
+  <si>
+    <t>9/11 és a terrorellenes háború</t>
+  </si>
+  <si>
+    <t>911.txt</t>
+  </si>
+  <si>
+    <t>Pénzügyi világválság</t>
+  </si>
+  <si>
+    <t>Válság.txt</t>
+  </si>
+  <si>
+    <t>2010-2020</t>
+  </si>
+  <si>
+    <t>2010-es évek</t>
+  </si>
+  <si>
+    <t>2010.txt</t>
+  </si>
+  <si>
+    <t>Oroszország</t>
+  </si>
+  <si>
+    <t>864-1263</t>
+  </si>
+  <si>
+    <t>Az első orosz állam: Kijevi Fejedelemség</t>
+  </si>
+  <si>
+    <t>Kijevi fejedelemség.txt</t>
+  </si>
+  <si>
+    <t>1240-1480</t>
+  </si>
+  <si>
+    <t>Az Aranyhorda hatalom kora</t>
+  </si>
+  <si>
+    <t>Aranyhorda.txt</t>
+  </si>
+  <si>
+    <t>1462-1505</t>
+  </si>
+  <si>
+    <t>3. Iván uralkodása</t>
+  </si>
+  <si>
+    <t>1547-1584</t>
+  </si>
+  <si>
+    <t>4. Iván uralkodása</t>
+  </si>
+  <si>
+    <t>1549-1560</t>
+  </si>
+  <si>
+    <t>A reform időszak</t>
+  </si>
+  <si>
+    <t>Reform.txt</t>
+  </si>
+  <si>
+    <t>Hadseregreform</t>
+  </si>
+  <si>
+    <t>Hadseregreform.txt</t>
+  </si>
+  <si>
+    <t>4. Iván.txt</t>
+  </si>
+  <si>
+    <t>3. Iván.txt</t>
+  </si>
+  <si>
+    <t>1560-1584</t>
+  </si>
+  <si>
+    <t>Az önkényuralom kora</t>
+  </si>
+  <si>
+    <t>Önkényuralom.txt</t>
+  </si>
+  <si>
+    <t>1558-1583</t>
+  </si>
+  <si>
+    <t>A Livóniai háború</t>
+  </si>
+  <si>
+    <t>Livónia.txt</t>
+  </si>
+  <si>
+    <t>1598-1613</t>
+  </si>
+  <si>
+    <t>Zavaros időszak</t>
+  </si>
+  <si>
+    <t>Zavaros.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,18 +764,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3F3F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,6 +777,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -621,10 +821,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -913,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:AI117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T106" sqref="T106"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T158" sqref="T158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,11 +1147,11 @@
       <c r="AG3" s="2"/>
     </row>
     <row r="5" spans="2:35" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="8">
         <v>895</v>
       </c>
@@ -967,7 +1168,7 @@
     <row r="6" spans="2:35" x14ac:dyDescent="0.25">
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="15"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -999,7 +1200,7 @@
     <row r="7" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="15"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="8">
         <v>972</v>
       </c>
@@ -1016,13 +1217,13 @@
     <row r="8" spans="2:35" x14ac:dyDescent="0.25">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="15"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="8">
         <v>1000</v>
       </c>
@@ -1040,14 +1241,14 @@
     <row r="10" spans="2:35" x14ac:dyDescent="0.25">
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="15"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="12"/>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="15"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="8" t="s">
         <v>12</v>
       </c>
@@ -1064,12 +1265,12 @@
     <row r="12" spans="2:35" x14ac:dyDescent="0.25">
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="15"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="15"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="8">
         <v>1222</v>
       </c>
@@ -1086,12 +1287,12 @@
     <row r="14" spans="2:35" x14ac:dyDescent="0.25">
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="8" t="s">
         <v>18</v>
       </c>
@@ -1108,12 +1309,12 @@
     <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="15"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="15"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="8" t="s">
         <v>21</v>
       </c>
@@ -1130,12 +1331,12 @@
     <row r="18" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="15"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="15"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="8">
         <v>1456</v>
       </c>
@@ -1149,13 +1350,13 @@
     <row r="20" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="8" t="s">
         <v>26</v>
       </c>
@@ -1169,12 +1370,12 @@
     <row r="22" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="8">
         <v>1514</v>
       </c>
@@ -1188,12 +1389,12 @@
     <row r="24" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="8">
         <v>1526</v>
       </c>
@@ -1207,12 +1408,12 @@
     <row r="26" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
-      <c r="H27" s="15"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="8">
         <v>1541</v>
       </c>
@@ -1226,12 +1427,12 @@
     <row r="28" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="15"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="15"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="8">
         <v>1686</v>
       </c>
@@ -1245,12 +1446,12 @@
     <row r="30" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
-      <c r="H30" s="15"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="15"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="8" t="s">
         <v>37</v>
       </c>
@@ -1264,12 +1465,12 @@
     <row r="32" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="15"/>
+      <c r="H32" s="21"/>
     </row>
     <row r="33" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
-      <c r="H33" s="15"/>
+      <c r="H33" s="21"/>
       <c r="I33" s="8">
         <v>1723</v>
       </c>
@@ -1283,12 +1484,12 @@
     <row r="34" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="15"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="15"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="8" t="s">
         <v>42</v>
       </c>
@@ -1302,12 +1503,12 @@
     <row r="36" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="15"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="15"/>
+      <c r="H37" s="21"/>
       <c r="I37" s="8" t="s">
         <v>45</v>
       </c>
@@ -1321,12 +1522,12 @@
     <row r="38" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="15"/>
+      <c r="H38" s="21"/>
     </row>
     <row r="39" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="15"/>
+      <c r="H39" s="21"/>
       <c r="I39" s="8">
         <v>1867</v>
       </c>
@@ -1340,12 +1541,12 @@
     <row r="40" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="15"/>
+      <c r="H40" s="21"/>
     </row>
     <row r="41" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="15"/>
+      <c r="H41" s="21"/>
       <c r="I41" s="8" t="s">
         <v>49</v>
       </c>
@@ -1359,13 +1560,13 @@
     <row r="42" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
-      <c r="H42" s="15"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
-      <c r="H43" s="15"/>
+      <c r="H43" s="21"/>
       <c r="I43" s="8">
         <v>1919</v>
       </c>
@@ -1379,12 +1580,12 @@
     <row r="44" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="15"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="15"/>
+      <c r="H45" s="21"/>
       <c r="I45" s="8" t="s">
         <v>55</v>
       </c>
@@ -1398,12 +1599,12 @@
     <row r="46" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="15"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="15"/>
+      <c r="H47" s="21"/>
       <c r="I47" s="8" t="s">
         <v>58</v>
       </c>
@@ -1417,12 +1618,12 @@
     <row r="48" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="15"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
-      <c r="H49" s="15"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="8" t="s">
         <v>60</v>
       </c>
@@ -1436,12 +1637,12 @@
     <row r="50" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="15"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="15"/>
+      <c r="H51" s="21"/>
       <c r="I51" s="8">
         <v>1956</v>
       </c>
@@ -1455,12 +1656,12 @@
     <row r="52" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
-      <c r="H52" s="15"/>
+      <c r="H52" s="21"/>
     </row>
     <row r="53" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="15"/>
+      <c r="H53" s="21"/>
       <c r="I53" s="8" t="s">
         <v>66</v>
       </c>
@@ -1474,12 +1675,12 @@
     <row r="54" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="15"/>
+      <c r="H54" s="21"/>
     </row>
     <row r="55" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="15"/>
+      <c r="H55" s="21"/>
       <c r="I55" s="8">
         <v>1989</v>
       </c>
@@ -1493,12 +1694,12 @@
     <row r="56" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="15"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="15"/>
+      <c r="H57" s="21"/>
       <c r="I57" s="8">
         <v>1994</v>
       </c>
@@ -1512,12 +1713,12 @@
     <row r="58" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="15"/>
+      <c r="H58" s="21"/>
     </row>
     <row r="59" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="15"/>
+      <c r="H59" s="21"/>
       <c r="I59" s="8">
         <v>1998</v>
       </c>
@@ -1531,12 +1732,12 @@
     <row r="60" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="15"/>
+      <c r="H60" s="21"/>
     </row>
     <row r="61" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="15"/>
+      <c r="H61" s="21"/>
       <c r="I61" s="8">
         <v>1999</v>
       </c>
@@ -1550,12 +1751,12 @@
     <row r="62" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="15"/>
+      <c r="H62" s="21"/>
     </row>
     <row r="63" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
-      <c r="H63" s="15"/>
+      <c r="H63" s="21"/>
       <c r="I63" s="8">
         <v>2000</v>
       </c>
@@ -1569,12 +1770,12 @@
     <row r="64" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="15"/>
+      <c r="H64" s="21"/>
     </row>
     <row r="65" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="15"/>
+      <c r="H65" s="21"/>
       <c r="I65" s="8">
         <v>2004</v>
       </c>
@@ -1588,12 +1789,12 @@
     <row r="66" spans="6:33" x14ac:dyDescent="0.25">
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="15"/>
+      <c r="H66" s="21"/>
     </row>
     <row r="67" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="15"/>
+      <c r="H67" s="21"/>
       <c r="I67" s="8">
         <v>2006</v>
       </c>
@@ -1605,11 +1806,11 @@
       </c>
     </row>
     <row r="70" spans="6:33" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
       <c r="I70" s="8" t="s">
         <v>84</v>
       </c>
@@ -1624,10 +1825,10 @@
       </c>
     </row>
     <row r="71" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H71" s="18"/>
+      <c r="H71" s="15"/>
     </row>
     <row r="72" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H72" s="18"/>
+      <c r="H72" s="15"/>
       <c r="I72" s="8" t="s">
         <v>87</v>
       </c>
@@ -1639,10 +1840,10 @@
       </c>
     </row>
     <row r="73" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H73" s="18"/>
+      <c r="H73" s="15"/>
     </row>
     <row r="74" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H74" s="18"/>
+      <c r="H74" s="15"/>
       <c r="I74" s="8" t="s">
         <v>90</v>
       </c>
@@ -1654,10 +1855,10 @@
       </c>
     </row>
     <row r="75" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H75" s="18"/>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H76" s="18"/>
+      <c r="H76" s="15"/>
       <c r="I76" s="8" t="s">
         <v>94</v>
       </c>
@@ -1669,10 +1870,10 @@
       </c>
     </row>
     <row r="77" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H77" s="18"/>
+      <c r="H77" s="15"/>
     </row>
     <row r="78" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H78" s="18"/>
+      <c r="H78" s="15"/>
       <c r="I78" s="8" t="s">
         <v>96</v>
       </c>
@@ -1684,10 +1885,10 @@
       </c>
     </row>
     <row r="79" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="H79" s="18"/>
+      <c r="H79" s="15"/>
     </row>
     <row r="80" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H80" s="18"/>
+      <c r="H80" s="15"/>
       <c r="I80" s="8" t="s">
         <v>100</v>
       </c>
@@ -1699,10 +1900,10 @@
       </c>
     </row>
     <row r="81" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H81" s="18"/>
+      <c r="H81" s="15"/>
     </row>
     <row r="82" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H82" s="18"/>
+      <c r="H82" s="15"/>
       <c r="I82" s="8" t="s">
         <v>103</v>
       </c>
@@ -1714,10 +1915,10 @@
       </c>
     </row>
     <row r="83" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H83" s="18"/>
+      <c r="H83" s="15"/>
     </row>
     <row r="84" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H84" s="18"/>
+      <c r="H84" s="15"/>
       <c r="I84" s="8" t="s">
         <v>106</v>
       </c>
@@ -1729,10 +1930,10 @@
       </c>
     </row>
     <row r="85" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H85" s="18"/>
+      <c r="H85" s="15"/>
     </row>
     <row r="86" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H86" s="18"/>
+      <c r="H86" s="15"/>
       <c r="I86" s="8">
         <v>1517</v>
       </c>
@@ -1744,10 +1945,10 @@
       </c>
     </row>
     <row r="87" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H87" s="18"/>
+      <c r="H87" s="15"/>
     </row>
     <row r="88" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H88" s="18"/>
+      <c r="H88" s="15"/>
       <c r="I88" s="8" t="s">
         <v>111</v>
       </c>
@@ -1759,10 +1960,10 @@
       </c>
     </row>
     <row r="89" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H89" s="18"/>
+      <c r="H89" s="15"/>
     </row>
     <row r="90" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H90" s="18"/>
+      <c r="H90" s="15"/>
       <c r="I90" s="8" t="s">
         <v>114</v>
       </c>
@@ -1774,10 +1975,10 @@
       </c>
     </row>
     <row r="91" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H91" s="18"/>
+      <c r="H91" s="15"/>
     </row>
     <row r="92" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H92" s="18"/>
+      <c r="H92" s="15"/>
       <c r="I92" s="8" t="s">
         <v>117</v>
       </c>
@@ -1789,10 +1990,10 @@
       </c>
     </row>
     <row r="93" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H93" s="18"/>
+      <c r="H93" s="15"/>
     </row>
     <row r="94" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H94" s="18"/>
+      <c r="H94" s="15"/>
       <c r="I94" s="8">
         <v>1848</v>
       </c>
@@ -1804,10 +2005,10 @@
       </c>
     </row>
     <row r="95" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H95" s="18"/>
+      <c r="H95" s="15"/>
     </row>
     <row r="96" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H96" s="18"/>
+      <c r="H96" s="15"/>
       <c r="I96" s="8">
         <v>1866</v>
       </c>
@@ -1819,10 +2020,10 @@
       </c>
     </row>
     <row r="97" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H97" s="18"/>
+      <c r="H97" s="15"/>
     </row>
     <row r="98" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H98" s="18"/>
+      <c r="H98" s="15"/>
       <c r="I98" s="8">
         <v>1871</v>
       </c>
@@ -1834,10 +2035,10 @@
       </c>
     </row>
     <row r="99" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H99" s="18"/>
+      <c r="H99" s="15"/>
     </row>
     <row r="100" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H100" s="18"/>
+      <c r="H100" s="15"/>
       <c r="I100" s="8">
         <v>1888</v>
       </c>
@@ -1849,10 +2050,10 @@
       </c>
     </row>
     <row r="101" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H101" s="18"/>
+      <c r="H101" s="15"/>
     </row>
     <row r="102" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H102" s="18"/>
+      <c r="H102" s="15"/>
       <c r="I102" s="9" t="s">
         <v>49</v>
       </c>
@@ -1864,10 +2065,10 @@
       </c>
     </row>
     <row r="103" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H103" s="18"/>
+      <c r="H103" s="15"/>
     </row>
     <row r="104" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H104" s="18"/>
+      <c r="H104" s="15"/>
       <c r="I104" s="8" t="s">
         <v>130</v>
       </c>
@@ -1879,10 +2080,10 @@
       </c>
     </row>
     <row r="105" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H105" s="18"/>
+      <c r="H105" s="15"/>
     </row>
     <row r="106" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H106" s="18"/>
+      <c r="H106" s="15"/>
       <c r="I106" s="8" t="s">
         <v>133</v>
       </c>
@@ -1894,10 +2095,10 @@
       </c>
     </row>
     <row r="107" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H107" s="18"/>
+      <c r="H107" s="15"/>
     </row>
     <row r="108" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H108" s="18"/>
+      <c r="H108" s="15"/>
       <c r="I108" s="8" t="s">
         <v>136</v>
       </c>
@@ -1909,10 +2110,10 @@
       </c>
     </row>
     <row r="109" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H109" s="18"/>
+      <c r="H109" s="15"/>
     </row>
     <row r="110" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H110" s="18"/>
+      <c r="H110" s="15"/>
       <c r="I110" s="9" t="s">
         <v>136</v>
       </c>
@@ -1924,10 +2125,10 @@
       </c>
     </row>
     <row r="111" spans="8:24" x14ac:dyDescent="0.25">
-      <c r="H111" s="18"/>
+      <c r="H111" s="15"/>
     </row>
     <row r="112" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H112" s="18"/>
+      <c r="H112" s="15"/>
       <c r="I112" s="8" t="s">
         <v>136</v>
       </c>
@@ -1939,10 +2140,10 @@
       </c>
     </row>
     <row r="113" spans="7:24" x14ac:dyDescent="0.25">
-      <c r="H113" s="18"/>
+      <c r="H113" s="15"/>
     </row>
     <row r="114" spans="7:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H114" s="18"/>
+      <c r="H114" s="15"/>
       <c r="I114" s="8">
         <v>1990</v>
       </c>
@@ -1954,10 +2155,10 @@
       </c>
     </row>
     <row r="117" spans="7:24" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="G117" s="19" t="s">
+      <c r="G117" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H117" s="20"/>
+      <c r="H117" s="17"/>
       <c r="I117" s="8">
         <v>1492</v>
       </c>
@@ -1968,11 +2169,355 @@
         <v>147</v>
       </c>
     </row>
+    <row r="118" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="7:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H119" s="17"/>
+      <c r="I119" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="X119" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="H120" s="17"/>
+    </row>
+    <row r="121" spans="7:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H121" s="17"/>
+      <c r="I121" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="M121" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="X121" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="H122" s="17"/>
+    </row>
+    <row r="123" spans="7:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H123" s="17"/>
+      <c r="I123" s="8">
+        <v>1773</v>
+      </c>
+      <c r="M123" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="X123" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="H124" s="17"/>
+    </row>
+    <row r="125" spans="7:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H125" s="17"/>
+      <c r="I125" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="X125" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="126" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="7:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H127" s="17"/>
+      <c r="I127" s="8">
+        <v>1789</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="X127" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="7:24" x14ac:dyDescent="0.25">
+      <c r="H128" s="17"/>
+    </row>
+    <row r="129" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H129" s="17"/>
+      <c r="I129" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="X129" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H131" s="17"/>
+      <c r="I131" s="8">
+        <v>1830</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="X131" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H133" s="17"/>
+      <c r="I133" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="X133" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H134" s="17"/>
+    </row>
+    <row r="135" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H135" s="17"/>
+      <c r="I135" s="8">
+        <v>1862</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="X135" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H136" s="17"/>
+    </row>
+    <row r="137" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H137" s="17"/>
+      <c r="I137" s="8">
+        <v>1917</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="X137" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H139" s="17"/>
+      <c r="I139" s="8">
+        <v>1919</v>
+      </c>
+      <c r="M139" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="X139" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H141" s="17"/>
+      <c r="I141" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="X141" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H142" s="17"/>
+    </row>
+    <row r="143" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H143" s="17"/>
+      <c r="I143" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M143" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X143" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H144" s="17"/>
+    </row>
+    <row r="145" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H145" s="17"/>
+      <c r="I145" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="M145" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="X145" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H146" s="17"/>
+    </row>
+    <row r="147" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H147" s="17"/>
+      <c r="I147" s="8">
+        <v>2008</v>
+      </c>
+      <c r="M147" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="X147" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="148" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H148" s="17"/>
+    </row>
+    <row r="149" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H149" s="17"/>
+      <c r="I149" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M149" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="X149" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="6:24" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F152" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="M152" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="X152" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I154" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="M154" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="X154" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I156" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="M156" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="X156" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I158" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M158" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="X158" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I160" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="M160" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="X160" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="162" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I162" s="8">
+        <v>1550</v>
+      </c>
+      <c r="M162" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="X162" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I164" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="M164" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="X164" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="166" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I166" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="M166" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="X166" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I168" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="M168" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="X168" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AG5" r:id="rId1" xr:uid="{49191068-0441-487B-9A7D-F06AE824FFC0}"/>
-    <hyperlink ref="AG7" r:id="rId2" xr:uid="{0A5B0AB2-0153-4C97-B431-66F9538BD799}"/>
-    <hyperlink ref="AG70" r:id="rId3" xr:uid="{10FEDE2B-5CA7-4BB0-9B03-AE03E9730277}"/>
+    <hyperlink ref="AG5" r:id="rId1"/>
+    <hyperlink ref="AG7" r:id="rId2"/>
+    <hyperlink ref="AG70" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -806,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -829,6 +829,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1117,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AI168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T158" sqref="T158"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,8 +1167,8 @@
       </c>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
       <c r="H6" s="21"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
@@ -1198,8 +1199,8 @@
       <c r="AI6" s="12"/>
     </row>
     <row r="7" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="21"/>
       <c r="I7" s="8">
         <v>972</v>
@@ -1215,14 +1216,14 @@
       </c>
     </row>
     <row r="8" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="21"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="21"/>
       <c r="I9" s="8">
         <v>1000</v>
@@ -1239,15 +1240,15 @@
       </c>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="21"/>
       <c r="I10" s="12"/>
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="21"/>
       <c r="I11" s="8" t="s">
         <v>12</v>
@@ -1263,13 +1264,13 @@
       </c>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
       <c r="H12" s="21"/>
     </row>
     <row r="13" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
       <c r="H13" s="21"/>
       <c r="I13" s="8">
         <v>1222</v>
@@ -1285,13 +1286,13 @@
       </c>
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:35" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="21"/>
       <c r="I15" s="8" t="s">
         <v>18</v>
@@ -1307,13 +1308,13 @@
       </c>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="21"/>
       <c r="I17" s="8" t="s">
         <v>21</v>
@@ -1329,13 +1330,13 @@
       </c>
     </row>
     <row r="18" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="21"/>
       <c r="I19" s="8">
         <v>1456</v>
@@ -1348,14 +1349,14 @@
       </c>
     </row>
     <row r="20" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
       <c r="H20" s="21"/>
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="21"/>
       <c r="I21" s="8" t="s">
         <v>26</v>
@@ -1368,13 +1369,13 @@
       </c>
     </row>
     <row r="22" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="21"/>
       <c r="I23" s="8">
         <v>1514</v>
@@ -1387,13 +1388,13 @@
       </c>
     </row>
     <row r="24" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="21"/>
       <c r="I25" s="8">
         <v>1526</v>
@@ -1406,13 +1407,13 @@
       </c>
     </row>
     <row r="26" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="21"/>
       <c r="I27" s="8">
         <v>1541</v>
@@ -1425,13 +1426,13 @@
       </c>
     </row>
     <row r="28" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="21"/>
       <c r="I29" s="8">
         <v>1686</v>
@@ -1444,13 +1445,13 @@
       </c>
     </row>
     <row r="30" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="21"/>
       <c r="I31" s="8" t="s">
         <v>37</v>
@@ -1463,13 +1464,13 @@
       </c>
     </row>
     <row r="32" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="21"/>
       <c r="I33" s="8">
         <v>1723</v>
@@ -1482,13 +1483,13 @@
       </c>
     </row>
     <row r="34" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="21"/>
       <c r="I35" s="8" t="s">
         <v>42</v>
@@ -1501,13 +1502,13 @@
       </c>
     </row>
     <row r="36" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="21"/>
       <c r="I37" s="8" t="s">
         <v>45</v>
@@ -1520,13 +1521,13 @@
       </c>
     </row>
     <row r="38" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
       <c r="H39" s="21"/>
       <c r="I39" s="8">
         <v>1867</v>
@@ -1539,13 +1540,13 @@
       </c>
     </row>
     <row r="40" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
       <c r="H41" s="21"/>
       <c r="I41" s="8" t="s">
         <v>49</v>
@@ -1558,14 +1559,14 @@
       </c>
     </row>
     <row r="42" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
       <c r="H42" s="21"/>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="21"/>
       <c r="I43" s="8">
         <v>1919</v>
@@ -1578,13 +1579,13 @@
       </c>
     </row>
     <row r="44" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
       <c r="H45" s="21"/>
       <c r="I45" s="8" t="s">
         <v>55</v>
@@ -1597,13 +1598,13 @@
       </c>
     </row>
     <row r="46" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
       <c r="H47" s="21"/>
       <c r="I47" s="8" t="s">
         <v>58</v>
@@ -1616,13 +1617,13 @@
       </c>
     </row>
     <row r="48" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
       <c r="H49" s="21"/>
       <c r="I49" s="8" t="s">
         <v>60</v>
@@ -1635,13 +1636,13 @@
       </c>
     </row>
     <row r="50" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
       <c r="H51" s="21"/>
       <c r="I51" s="8">
         <v>1956</v>
@@ -1654,13 +1655,13 @@
       </c>
     </row>
     <row r="52" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
       <c r="H53" s="21"/>
       <c r="I53" s="8" t="s">
         <v>66</v>
@@ -1673,13 +1674,13 @@
       </c>
     </row>
     <row r="54" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
       <c r="H55" s="21"/>
       <c r="I55" s="8">
         <v>1989</v>
@@ -1692,13 +1693,13 @@
       </c>
     </row>
     <row r="56" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
       <c r="H56" s="21"/>
     </row>
     <row r="57" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
       <c r="H57" s="21"/>
       <c r="I57" s="8">
         <v>1994</v>
@@ -1711,13 +1712,13 @@
       </c>
     </row>
     <row r="58" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
       <c r="H58" s="21"/>
     </row>
     <row r="59" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="21"/>
       <c r="I59" s="8">
         <v>1998</v>
@@ -1730,13 +1731,13 @@
       </c>
     </row>
     <row r="60" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
       <c r="H60" s="21"/>
     </row>
     <row r="61" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
       <c r="H61" s="21"/>
       <c r="I61" s="8">
         <v>1999</v>
@@ -1749,13 +1750,13 @@
       </c>
     </row>
     <row r="62" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
       <c r="H62" s="21"/>
     </row>
     <row r="63" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
       <c r="H63" s="21"/>
       <c r="I63" s="8">
         <v>2000</v>
@@ -1768,13 +1769,13 @@
       </c>
     </row>
     <row r="64" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
       <c r="H64" s="21"/>
     </row>
     <row r="65" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
       <c r="H65" s="21"/>
       <c r="I65" s="8">
         <v>2004</v>
@@ -1787,13 +1788,13 @@
       </c>
     </row>
     <row r="66" spans="6:33" x14ac:dyDescent="0.25">
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
       <c r="H66" s="21"/>
     </row>
     <row r="67" spans="6:33" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
       <c r="H67" s="21"/>
       <c r="I67" s="8">
         <v>2006</v>

--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="260">
   <si>
     <t>Magyarország</t>
   </si>
@@ -664,6 +664,141 @@
   </si>
   <si>
     <t>Zavaros.txt</t>
+  </si>
+  <si>
+    <t>1598-1603</t>
+  </si>
+  <si>
+    <t>Godunov reformjai</t>
+  </si>
+  <si>
+    <t>Godunov.txt</t>
+  </si>
+  <si>
+    <t>1613-1645</t>
+  </si>
+  <si>
+    <t>Mihail Romanov</t>
+  </si>
+  <si>
+    <t>Mihail Romanov.txt</t>
+  </si>
+  <si>
+    <t>Orosz egyház szakadás</t>
+  </si>
+  <si>
+    <t>Orosz egyház szakadás.txt</t>
+  </si>
+  <si>
+    <t>1695-1725</t>
+  </si>
+  <si>
+    <t>1. Nagy Péter</t>
+  </si>
+  <si>
+    <t>Nagy Péter.txt</t>
+  </si>
+  <si>
+    <t>1700-1721</t>
+  </si>
+  <si>
+    <t>A Nagy Északi háború</t>
+  </si>
+  <si>
+    <t>Északi háború.txt</t>
+  </si>
+  <si>
+    <t>1725-1762</t>
+  </si>
+  <si>
+    <t>Nagy Péter halála utáni korszak cárnői</t>
+  </si>
+  <si>
+    <t>cárnők.txt</t>
+  </si>
+  <si>
+    <t>Napóleon Oroszország ellen vonul</t>
+  </si>
+  <si>
+    <t>Napoleon vs orosz.txt</t>
+  </si>
+  <si>
+    <t>1825-1905</t>
+  </si>
+  <si>
+    <t>A birodalom hanyatlása</t>
+  </si>
+  <si>
+    <t>Hanyatlás.txt</t>
+  </si>
+  <si>
+    <t>Oroszország az első világháborúban</t>
+  </si>
+  <si>
+    <t>Oroszország az első világháborúban.txt</t>
+  </si>
+  <si>
+    <t>Februári szocialista forradalom</t>
+  </si>
+  <si>
+    <t>Februári forradalom.txt</t>
+  </si>
+  <si>
+    <t>1917-1922</t>
+  </si>
+  <si>
+    <t>Orosz polgárháború</t>
+  </si>
+  <si>
+    <t>Orosz polgárháború.txt</t>
+  </si>
+  <si>
+    <t>1928-1936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kollektivizálás </t>
+  </si>
+  <si>
+    <t>Kollektivizálás.txt</t>
+  </si>
+  <si>
+    <t>1934-1940</t>
+  </si>
+  <si>
+    <t>Nagy tisztogatás</t>
+  </si>
+  <si>
+    <t>Tisztogatás.tx</t>
+  </si>
+  <si>
+    <t>1939-1945</t>
+  </si>
+  <si>
+    <t>Oroszország a második világháborúban</t>
+  </si>
+  <si>
+    <t>Oroszország a második világháborúban.txt</t>
+  </si>
+  <si>
+    <t>2014-2023</t>
+  </si>
+  <si>
+    <t>Orosz-ukrán háború</t>
+  </si>
+  <si>
+    <t>Orosz-ukrán háború.txt</t>
+  </si>
+  <si>
+    <t>Ausztria</t>
+  </si>
+  <si>
+    <t>976-1246</t>
+  </si>
+  <si>
+    <t>Babenberg-dinasztia</t>
+  </si>
+  <si>
+    <t>Babenberg.txt</t>
   </si>
 </sst>
 </file>
@@ -725,7 +860,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -792,6 +927,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -806,7 +947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -830,6 +971,8 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
@@ -1116,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AI168"/>
+  <dimension ref="B3:AI203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J212" sqref="J212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2426,7 +2569,11 @@
         <v>191</v>
       </c>
     </row>
+    <row r="153" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H153" s="19"/>
+    </row>
     <row r="154" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H154" s="19"/>
       <c r="I154" s="8" t="s">
         <v>192</v>
       </c>
@@ -2437,7 +2584,11 @@
         <v>194</v>
       </c>
     </row>
+    <row r="155" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H155" s="19"/>
+    </row>
     <row r="156" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H156" s="19"/>
       <c r="I156" s="8" t="s">
         <v>195</v>
       </c>
@@ -2448,7 +2599,11 @@
         <v>205</v>
       </c>
     </row>
+    <row r="157" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H157" s="19"/>
+    </row>
     <row r="158" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H158" s="19"/>
       <c r="I158" s="8" t="s">
         <v>197</v>
       </c>
@@ -2459,7 +2614,11 @@
         <v>204</v>
       </c>
     </row>
+    <row r="159" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H159" s="19"/>
+    </row>
     <row r="160" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H160" s="19"/>
       <c r="I160" s="8" t="s">
         <v>199</v>
       </c>
@@ -2470,7 +2629,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="162" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="161" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H161" s="19"/>
+    </row>
+    <row r="162" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H162" s="19"/>
       <c r="I162" s="8">
         <v>1550</v>
       </c>
@@ -2481,7 +2644,11 @@
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="163" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H163" s="19"/>
+    </row>
+    <row r="164" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H164" s="19"/>
       <c r="I164" s="8" t="s">
         <v>206</v>
       </c>
@@ -2492,7 +2659,11 @@
         <v>208</v>
       </c>
     </row>
-    <row r="166" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="165" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H165" s="19"/>
+    </row>
+    <row r="166" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H166" s="19"/>
       <c r="I166" s="8" t="s">
         <v>209</v>
       </c>
@@ -2503,7 +2674,11 @@
         <v>211</v>
       </c>
     </row>
-    <row r="168" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="167" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H167" s="19"/>
+    </row>
+    <row r="168" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H168" s="19"/>
       <c r="I168" s="8" t="s">
         <v>212</v>
       </c>
@@ -2512,6 +2687,262 @@
       </c>
       <c r="X168" s="8" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H169" s="19"/>
+    </row>
+    <row r="170" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H170" s="19"/>
+      <c r="I170" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="M170" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="X170" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H171" s="19"/>
+    </row>
+    <row r="172" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H172" s="19"/>
+      <c r="I172" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="M172" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="X172" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="173" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H173" s="19"/>
+    </row>
+    <row r="174" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H174" s="19"/>
+      <c r="I174" s="8">
+        <v>1654</v>
+      </c>
+      <c r="M174" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="X174" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="175" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H175" s="19"/>
+    </row>
+    <row r="176" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H176" s="19"/>
+      <c r="I176" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="M176" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="X176" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="177" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H177" s="19"/>
+    </row>
+    <row r="178" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H178" s="19"/>
+      <c r="I178" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="M178" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="X178" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H179" s="19"/>
+    </row>
+    <row r="180" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H180" s="19"/>
+      <c r="I180" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M180" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="X180" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H181" s="19"/>
+    </row>
+    <row r="182" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H182" s="19"/>
+      <c r="I182" s="8">
+        <v>1812</v>
+      </c>
+      <c r="M182" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="X182" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="183" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H183" s="19"/>
+    </row>
+    <row r="184" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H184" s="19"/>
+      <c r="I184" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="M184" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="X184" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H185" s="19"/>
+    </row>
+    <row r="186" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H186" s="19"/>
+      <c r="I186" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M186" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="X186" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="187" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H187" s="19"/>
+    </row>
+    <row r="188" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H188" s="19"/>
+      <c r="I188" s="8">
+        <v>1917</v>
+      </c>
+      <c r="M188" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="X188" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="189" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H189" s="19"/>
+    </row>
+    <row r="190" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H190" s="19"/>
+      <c r="I190" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="M190" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="X190" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="191" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H191" s="19"/>
+    </row>
+    <row r="192" spans="8:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H192" s="19"/>
+      <c r="I192" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M192" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="X192" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="193" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H193" s="19"/>
+    </row>
+    <row r="194" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H194" s="19"/>
+      <c r="I194" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="M194" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="X194" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="195" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H195" s="19"/>
+    </row>
+    <row r="196" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H196" s="19"/>
+      <c r="I196" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="M196" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="X196" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="197" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H197" s="19"/>
+    </row>
+    <row r="198" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H198" s="19"/>
+      <c r="I198" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M198" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="X198" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="199" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="H199" s="19"/>
+    </row>
+    <row r="200" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="H200" s="19"/>
+      <c r="I200" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="M200" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="X200" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="203" spans="6:24" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="F203" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M203" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="X203" s="8" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="301">
   <si>
     <t>Magyarország</t>
   </si>
@@ -799,6 +799,129 @@
   </si>
   <si>
     <t>Babenberg.txt</t>
+  </si>
+  <si>
+    <t>1260-1397</t>
+  </si>
+  <si>
+    <t>Inkvizíció Ausztriában</t>
+  </si>
+  <si>
+    <t>osztrák ink.txt</t>
+  </si>
+  <si>
+    <t>A nagyhatalom születése</t>
+  </si>
+  <si>
+    <t>Nagyhatalom.txt</t>
+  </si>
+  <si>
+    <t>1526-1683</t>
+  </si>
+  <si>
+    <t>Osztrák-török háborúk</t>
+  </si>
+  <si>
+    <t>Osztrák-török háború.txt</t>
+  </si>
+  <si>
+    <t>Bécs ostroma</t>
+  </si>
+  <si>
+    <t>Bécs ostroma.txt</t>
+  </si>
+  <si>
+    <t>1576-1648</t>
+  </si>
+  <si>
+    <t>Ellenreformáció és a 30 éves háború</t>
+  </si>
+  <si>
+    <t>30 éves háború.txt</t>
+  </si>
+  <si>
+    <t>Magyarországi török uralom vége</t>
+  </si>
+  <si>
+    <t>Török uralom vége.txt</t>
+  </si>
+  <si>
+    <t>1700-1714</t>
+  </si>
+  <si>
+    <t>Spanyol örökösödési háború</t>
+  </si>
+  <si>
+    <t>örökös háború.txt</t>
+  </si>
+  <si>
+    <t>1740-1780</t>
+  </si>
+  <si>
+    <t>Mária Terézia</t>
+  </si>
+  <si>
+    <t>Mária Terézia.txt</t>
+  </si>
+  <si>
+    <t>1780-1790</t>
+  </si>
+  <si>
+    <t>2. József</t>
+  </si>
+  <si>
+    <t>2. József.txt</t>
+  </si>
+  <si>
+    <t>1797-1814</t>
+  </si>
+  <si>
+    <t>Napóleoni háborúk.txt</t>
+  </si>
+  <si>
+    <t>Magyar forradalom</t>
+  </si>
+  <si>
+    <t>Magyar forradalom.txt</t>
+  </si>
+  <si>
+    <t>1867-1918</t>
+  </si>
+  <si>
+    <t>Osztrák-Magyar Monarchia</t>
+  </si>
+  <si>
+    <t>Osztrák-Magyar Monarchia.txt</t>
+  </si>
+  <si>
+    <t>Osztrák-Magyar Monarchia az első világháborúban</t>
+  </si>
+  <si>
+    <t>OMMWW1.txt</t>
+  </si>
+  <si>
+    <t>1918-1938</t>
+  </si>
+  <si>
+    <t>Az első osztrák köztársaság</t>
+  </si>
+  <si>
+    <t>Első köztársaság.txt</t>
+  </si>
+  <si>
+    <t>1938-1945</t>
+  </si>
+  <si>
+    <t>Anschluss és a második világháború</t>
+  </si>
+  <si>
+    <t>Anschluss.txt</t>
+  </si>
+  <si>
+    <t>Második osztrák köztársaság megalakulása</t>
+  </si>
+  <si>
+    <t>Második köztársaság.txt</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AI203"/>
+  <dimension ref="B3:AI235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J212" sqref="J212"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U227" sqref="U227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,6 +3068,182 @@
         <v>259</v>
       </c>
     </row>
+    <row r="205" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I205" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="M205" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="X205" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="207" spans="6:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I207" s="8">
+        <v>1437</v>
+      </c>
+      <c r="M207" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="X207" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="209" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I209" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="M209" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="X209" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="211" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I211" s="8">
+        <v>1529</v>
+      </c>
+      <c r="M211" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="X211" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="213" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I213" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="M213" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="X213" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="215" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I215" s="8">
+        <v>1683</v>
+      </c>
+      <c r="M215" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="X215" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="217" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I217" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="M217" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="X217" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="219" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I219" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="M219" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="X219" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="221" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I221" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="M221" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="X221" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="223" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I223" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="M223" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="X223" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="225" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I225" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M225" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="X225" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="227" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I227" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="M227" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="X227" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="229" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I229" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M229" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="X229" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="231" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I231" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="M231" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X231" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="233" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I233" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="M233" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="X233" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="235" spans="9:24" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="I235" s="8">
+        <v>1945</v>
+      </c>
+      <c r="M235" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="X235" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AG5" r:id="rId1"/>

--- a/document_database/Adatgyűjtés/országok történetei.xlsx
+++ b/document_database/Adatgyűjtés/országok történetei.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9C7EA7-B90C-4FF4-B58B-17909ECED4C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -927,7 +928,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1381,11 +1382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AI235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U227" sqref="U227"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M125" sqref="M125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,9 +3247,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AG5" r:id="rId1"/>
-    <hyperlink ref="AG7" r:id="rId2"/>
-    <hyperlink ref="AG70" r:id="rId3"/>
+    <hyperlink ref="AG5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AG7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AG70" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
